--- a/DataGenerator/XLSXS/StringData/StringData.xlsx
+++ b/DataGenerator/XLSXS/StringData/StringData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\StringData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864ACB7C-E234-4B7B-BB61-2BEB51F35A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A3BB03-9456-4682-8134-BB2853E16373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7995" yWindow="5265" windowWidth="28800" windowHeight="15285" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>index</t>
+    <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +419,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DataGenerator/XLSXS/StringData/StringData.xlsx
+++ b/DataGenerator/XLSXS/StringData/StringData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\StringData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A3BB03-9456-4682-8134-BB2853E16373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF1090B-D021-47D2-8DED-24C8ED04FD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="166">
   <si>
     <t>Index</t>
   </si>
@@ -31,36 +31,498 @@
     <t>한국어</t>
   </si>
   <si>
-    <t>영어</t>
-  </si>
-  <si>
     <t>stringCode</t>
   </si>
   <si>
     <t>stringKor</t>
   </si>
   <si>
-    <t>stringEng</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>StringCode_Dialog1</t>
-  </si>
-  <si>
-    <t>솔직히 말할게, {0}이야.</t>
-  </si>
-  <si>
-    <t>Honestly, it's {0}.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>char_Dealer</t>
+  </si>
+  <si>
+    <t>딜러</t>
+  </si>
+  <si>
+    <t>char_Lucy</t>
+  </si>
+  <si>
+    <t>루시</t>
+  </si>
+  <si>
+    <t>char_Mammon</t>
+  </si>
+  <si>
+    <t>마몬</t>
+  </si>
+  <si>
+    <t>char_Levia</t>
+  </si>
+  <si>
+    <t>레비아</t>
+  </si>
+  <si>
+    <t>char_Sei</t>
+  </si>
+  <si>
+    <t>세이</t>
+  </si>
+  <si>
+    <t>char_Asmode</t>
+  </si>
+  <si>
+    <t>아스모데</t>
+  </si>
+  <si>
+    <t>char_Belle</t>
+  </si>
+  <si>
+    <t>벨</t>
+  </si>
+  <si>
+    <t>char_Belphego</t>
+  </si>
+  <si>
+    <t>벨페고</t>
+  </si>
+  <si>
+    <t>room_mainLobby</t>
+  </si>
+  <si>
+    <t>메인로비</t>
+  </si>
+  <si>
+    <t>room_dealerRoom</t>
+  </si>
+  <si>
+    <t>딜러 룸</t>
+  </si>
+  <si>
+    <t>room_interviewRoom</t>
+  </si>
+  <si>
+    <t>인터뷰 룸</t>
+  </si>
+  <si>
+    <t>room_storage</t>
+  </si>
+  <si>
+    <t>창고</t>
+  </si>
+  <si>
+    <t>room_classroom</t>
+  </si>
+  <si>
+    <t>교실</t>
+  </si>
+  <si>
+    <t>room_attic</t>
+  </si>
+  <si>
+    <t>다락방</t>
+  </si>
+  <si>
+    <t>room_bathroom</t>
+  </si>
+  <si>
+    <t>화장실</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby1</t>
+  </si>
+  <si>
+    <t>그래서… 무슨 말이야? {0} 같은 거 없나?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby2</t>
+  </si>
+  <si>
+    <t>누가 뭐라도 말 좀 해봐. 나만 말해? 거기 연갈색 대가리 네가 말해봐.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby3</t>
+  </si>
+  <si>
+    <t>말하기 싫어요.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby4</t>
+  </si>
+  <si>
+    <t>뭐?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby5</t>
+  </si>
+  <si>
+    <t>그야… 우리가 하고 있는 건 데스 게임이잖아요?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby6</t>
+  </si>
+  <si>
+    <t>탈락자가 되면 죽는 게임에서 먼저 나서는 게 더 이상하죠.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby7</t>
+  </si>
+  <si>
+    <t>굳이 다 같이 있는 자리에서 협력할 필요가 없으니까...</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby8</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby9</t>
+  </si>
+  <si>
+    <t>… 딱히 그렇지만도 않네.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby10</t>
+  </si>
+  <si>
+    <t>네?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby11</t>
+  </si>
+  <si>
+    <t>힘을 합칠 이유가 있다는 걸세.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby12</t>
+  </si>
+  <si>
+    <t>이 게임은 한 명을 제외하고 {0} {1}을 챙길 수 있는 게임이니까.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby13</t>
+  </si>
+  <si>
+    <t>전부 1승이요?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby14</t>
+  </si>
+  <si>
+    <t>그래, 6명은 1승을 가진 채로 다음 게임으로 넘어갈 수 있네.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby15</t>
+  </si>
+  <si>
+    <t>설명해 주실래요? 흐음?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby16</t>
+  </si>
+  <si>
+    <t>언니 바보야? 이것도 이해 못 했어?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby17</t>
+  </si>
+  <si>
+    <t>… 말해줄래?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby18</t>
+  </si>
+  <si>
+    <t>멍청한 언니를 위해 내가 말해줘야겠구만!</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby19</t>
+  </si>
+  <si>
+    <t>처음에 0카드를 가진 사람이랑 아무도 {0} 안 해주면 돼!</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby20</t>
+  </si>
+  <si>
+    <t>그러면 6명이 남으니까, 둘씩 짝지으면 끝!</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby21</t>
+  </si>
+  <si>
+    <t>그렇네요. 남은 6명이서 3팀을 만들고</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby22</t>
+  </si>
+  <si>
+    <t>각자 {0}를 하면 되니까!</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby23</t>
+  </si>
+  <si>
+    <t>1명을 제외하고 모두 행복해지겠네요.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby24</t>
+  </si>
+  <si>
+    <t>이른바, {0}이라 할까요?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby25</t>
+  </si>
+  <si>
+    <t>... 멍청이들이 내린 결론 치고는 괜찮은 생각이네.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby26</t>
+  </si>
+  <si>
+    <t>카드를 받으면 다들 메인 로비에 집합하도록 해.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby27</t>
+  </si>
+  <si>
+    <t>불만 있으면 0카드 소지자로 간주하겠어.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby28</t>
+  </si>
+  <si>
+    <t>네네~ 알겠으니 저는 방으로 가서 한숨 자면 안 될까요?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby29</t>
+  </si>
+  <si>
+    <t>어이, 어디 가? 내 말 못 들었어?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby30</t>
+  </si>
+  <si>
+    <t>방금 말했잖아요. 자러 간다고요.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby31</t>
+  </si>
+  <si>
+    <t>그러니…</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby32</t>
+  </si>
+  <si>
+    <t>그런 게 될 리가 없으니까.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby33</t>
+  </si>
+  <si>
+    <t>… 네가 뭘 안다고 그래?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby34</t>
+  </si>
+  <si>
+    <t>이 계획은 {0} 문제점이 있어요~</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby35</t>
+  </si>
+  <si>
+    <t>첫째, 0을 가진 사람을 {0} 찾아낼 거예요?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby36</t>
+  </si>
+  <si>
+    <t>처음 본 사람들끼리 ‘나한텐 0카드 없어요~’해도 믿을 리가 없잖아요~</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby37</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby38</t>
+  </si>
+  <si>
+    <t>그리고 성공한다고 해서, 모두 1승인 상황이 좋을 거 같아요?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby39</t>
+  </si>
+  <si>
+    <t>「데자이어 게임」은 아마 게임 하나당 적어도 1명의 탈락자가 생길 가능성이 높아요.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby40</t>
+  </si>
+  <si>
+    <t>그렇다고 하면, 게임당 최소 한 명의 희생자가 필요한데,</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby41</t>
+  </si>
+  <si>
+    <t>모두가 1승인 상태에서는 누구든 쉽게 2승을 달성하고 이 게임을 나갈 수 있겠죠.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby42</t>
+  </si>
+  <si>
+    <t>하나 둘씩 나가면 참가자 수는 줄어들고, 남은 자리는 더 줄어들 텐데,</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby43</t>
+  </si>
+  <si>
+    <t>누구 좋으라고 다 같이 사이좋게 우승하겠어요?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby44</t>
+  </si>
+  <si>
+    <t>이런 걸 설명을 해줘야 아나?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby45</t>
+  </si>
+  <si>
+    <t>전 이만 가볼게요~</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby46</t>
+  </si>
+  <si>
+    <t>…너 기억했어.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby47</t>
+  </si>
+  <si>
+    <t>다들 감정이 격해진 것 같군.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby48</t>
+  </si>
+  <si>
+    <t>다들 좀 흩어져서 생각해 보는 건 어떤가?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby49</t>
+  </si>
+  <si>
+    <t>그래야 할 거 같네요~</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby50</t>
+  </si>
+  <si>
+    <t>나 세트장 구경하고 싶어! 특히 저기 삼각형 방!</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby51</t>
+  </si>
+  <si>
+    <t>그래요~ 그래요. 다들 힘 빼지 말고요.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby52</t>
+  </si>
+  <si>
+    <t>마지막으로 질문 하나만.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby53</t>
+  </si>
+  <si>
+    <t>… 카드를 남에게 넘길 수 있어?</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby54</t>
+  </si>
+  <si>
+    <t>네, 카드는 양도할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby55</t>
+  </si>
+  <si>
+    <t>하지만 승점은 대결로만 획득할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>g1r1_mainLobby56</t>
+  </si>
+  <si>
+    <t>알겠어.</t>
+  </si>
+  <si>
+    <t>g1r1_charKey1</t>
+  </si>
+  <si>
+    <t>세 줄 요약</t>
+  </si>
+  <si>
+    <t>g1r1_stratKey1</t>
+  </si>
+  <si>
+    <t>모두</t>
+  </si>
+  <si>
+    <t>g1r1_stratKey2</t>
+  </si>
+  <si>
+    <t>1승</t>
+  </si>
+  <si>
+    <t>g1r1_stratKey3</t>
+  </si>
+  <si>
+    <t>대결을 안 해주면</t>
+  </si>
+  <si>
+    <t>g1r1_stratKey4</t>
+  </si>
+  <si>
+    <t>1승 1패 1무</t>
+  </si>
+  <si>
+    <t>g1r1_stratKey5</t>
+  </si>
+  <si>
+    <t>6인 1승 전략</t>
+  </si>
+  <si>
+    <t>g1r1_stratKey6</t>
+  </si>
+  <si>
+    <t>두 가지</t>
+  </si>
+  <si>
+    <t>g1r1_stratKey7</t>
+  </si>
+  <si>
+    <t>어떻게</t>
+  </si>
+  <si>
+    <t>g1r1_stratNote1</t>
+  </si>
+  <si>
+    <t>[{0}] 대상 : {1}\n
+목표 : 모든 사람이 {2}해 모두 {3}을 가지기\n
+방법 : 최초 0카드 소지자와 {4} 된다.\n
+문제점 : {5}\n
+1. {6} 0카드 소지자를 찾을 것인가?\n
+2. 모두 이득보는 상황이 모두에게 좋지 않음.</t>
   </si>
 </sst>
 </file>
@@ -74,13 +536,6 @@
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
@@ -91,6 +546,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -113,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,27 +583,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,10 +904,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -429,134 +917,1542 @@
     <col min="4" max="4" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>2110001</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>2110002</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>2110003</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>2110004</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>2110005</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>2110006</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>2110007</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>2110008</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>2110009</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>2110010</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>2110011</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>2110012</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>2110013</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>2110014</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>2110015</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>2110016</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>2110017</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>2110018</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>2110019</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>2110020</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>2110021</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>2110022</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>2110023</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>2110024</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>2110025</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>2110026</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>2110027</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>2110028</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>2110029</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>2110030</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>2110031</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>2110032</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>2110033</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>2110034</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>2110035</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>2110036</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>2110037</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>2110038</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>2110039</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>2110040</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>2110041</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>2110042</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>2110043</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>2110044</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>2110045</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>2110046</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>2110047</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>2110048</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>2110049</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>2110050</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>2110051</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>2110052</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>2110053</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>2110054</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>2110055</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>2110056</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>3110001</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>3110002</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>3110003</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>3110004</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>3110005</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>3110006</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>3110007</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>3110008</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="1:10" ht="78.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="7">
+        <v>4110001</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>